--- a/medicine/Enfance/Nicolas_Mathieu_(écrivain)/Nicolas_Mathieu_(écrivain).xlsx
+++ b/medicine/Enfance/Nicolas_Mathieu_(écrivain)/Nicolas_Mathieu_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas_Mathieu_(%C3%A9crivain)</t>
+          <t>Nicolas_Mathieu_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Mathieu, né le 2 juin 1978[1] à Épinal dans les Vosges, est un écrivain français. Son roman Leurs enfants après eux, publié en 2018, est récompensé par le prix Goncourt la même année[2]. Son œuvre aborde les conséquences de la désindustrialisation sur la classe ouvrière française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Mathieu, né le 2 juin 1978 à Épinal dans les Vosges, est un écrivain français. Son roman Leurs enfants après eux, publié en 2018, est récompensé par le prix Goncourt la même année. Son œuvre aborde les conséquences de la désindustrialisation sur la classe ouvrière française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas_Mathieu_(%C3%A9crivain)</t>
+          <t>Nicolas_Mathieu_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Mathieu passe son enfance à Golbey, commune limitrophe d'Épinal dans les Vosges, dans le quartier pavillonnaire populaire de la Jeanne-d'Arc[3], du nom d'une entreprise de commerce de gros en alimentation qui y logeait ses employés jusqu'à sa fermeture. Sa mère est comptable, son père électro-mécanicien[3]. Scolarisé dans l’enseignement privé catholique[4], Nicolas Mathieu y découvre un milieu plus favorisé : « La différence sociale avec les autres élèves n'a pas toujours été facile à vivre. D'ailleurs, ça me définit encore aujourd'hui[5]. » Il y trouve cependant l'encouragement d'enseignantes devant ses premiers essais d'écriture.
-Il rédige un mémoire universitaire de maîtrise en arts du spectacle à l'université de Metz intitulé « Terrence Malick : portrait d'un cinéaste en philosophe », sous la direction de Jean-Marc Leveratto[6]. Il travaille ensuite notamment comme journaliste pour un site Internet d'information en ligne[7], comme greffier de réunions de comités d'entreprise[8] puis à temps partiel comme « plume à tout faire », ainsi qu'il aime à se présenter, de l’association de surveillance de la qualité de l’air de Lorraine Atmo pour laquelle il rédige des discours et dont il anime le site Internet institutionnel[7]. Il écrit un premier roman vers l'âge de vingt-deux ans, « mais c'était une purge narcissique »[8].
-Son premier roman publié, Aux animaux la guerre[9], paraît en 2014 et remporte la même année le prix Erckmann-Chatrian[10] et le prix Transfuge du meilleur espoir Polar[11], puis, en 2015, le prix Mystère de la critique[12] et le prix du roman du Festival du goéland masqué. Il est adapté à la télévision pour France 3, dans une série éponyme[13]. Ce succès rassure Nicolas Mathieu sur son état d'écrivain : « Jusqu'à mes 35 ans, j'ai bouffé de la vache enragée, je vivais de petits boulots. Longtemps, j'ai craint de m'être fourvoyé dans cette voie…[5] »
-Nicolas Mathieu obtient le prix Goncourt le 7 novembre 2018 pour son deuxième roman, Leurs enfants après eux, paru en août 2018[14]. La même année, il est également lauréat, pour le même roman, du prix du deuxième roman Alain-Spiess « Le Central »[15], du prix Blù Jean-Marc Roberts[16] et du prix Feuille d'or de la ville de Nancy–prix des médias France Bleu-France 3-L'Est républicain[17]. Le roman est un succès de librairie et est traduit en une vingtaine de langues.
-En 2022 paraît son roman Connemara[18], toujours chez Actes sud. Nicolas Mathieu y fait le portrait croisé d'une "histoire d'amour complexe[19]", celle d'Hélène et Christophe, quadragénaires originaires de la même ville des Vosges qui se retrouvent après des existences bien différentes. Le titre du roman est une référence à la chanson Les Lacs du Connemara de Michel Sardou. Nicolas Mathieu justifie ce choix par le fait que « cette chanson nous est commune et en même temps selon qu'on l'écoute dans des mariages ou à la fin d'une fête de grande école de commerce, ce n'est pas le même monde. On ne l'écoute pas au même degré. »[20]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Mathieu passe son enfance à Golbey, commune limitrophe d'Épinal dans les Vosges, dans le quartier pavillonnaire populaire de la Jeanne-d'Arc, du nom d'une entreprise de commerce de gros en alimentation qui y logeait ses employés jusqu'à sa fermeture. Sa mère est comptable, son père électro-mécanicien. Scolarisé dans l’enseignement privé catholique, Nicolas Mathieu y découvre un milieu plus favorisé : « La différence sociale avec les autres élèves n'a pas toujours été facile à vivre. D'ailleurs, ça me définit encore aujourd'hui. » Il y trouve cependant l'encouragement d'enseignantes devant ses premiers essais d'écriture.
+Il rédige un mémoire universitaire de maîtrise en arts du spectacle à l'université de Metz intitulé « Terrence Malick : portrait d'un cinéaste en philosophe », sous la direction de Jean-Marc Leveratto. Il travaille ensuite notamment comme journaliste pour un site Internet d'information en ligne, comme greffier de réunions de comités d'entreprise puis à temps partiel comme « plume à tout faire », ainsi qu'il aime à se présenter, de l’association de surveillance de la qualité de l’air de Lorraine Atmo pour laquelle il rédige des discours et dont il anime le site Internet institutionnel. Il écrit un premier roman vers l'âge de vingt-deux ans, « mais c'était une purge narcissique ».
+Son premier roman publié, Aux animaux la guerre, paraît en 2014 et remporte la même année le prix Erckmann-Chatrian et le prix Transfuge du meilleur espoir Polar, puis, en 2015, le prix Mystère de la critique et le prix du roman du Festival du goéland masqué. Il est adapté à la télévision pour France 3, dans une série éponyme. Ce succès rassure Nicolas Mathieu sur son état d'écrivain : « Jusqu'à mes 35 ans, j'ai bouffé de la vache enragée, je vivais de petits boulots. Longtemps, j'ai craint de m'être fourvoyé dans cette voie… »
+Nicolas Mathieu obtient le prix Goncourt le 7 novembre 2018 pour son deuxième roman, Leurs enfants après eux, paru en août 2018. La même année, il est également lauréat, pour le même roman, du prix du deuxième roman Alain-Spiess « Le Central », du prix Blù Jean-Marc Roberts et du prix Feuille d'or de la ville de Nancy–prix des médias France Bleu-France 3-L'Est républicain. Le roman est un succès de librairie et est traduit en une vingtaine de langues.
+En 2022 paraît son roman Connemara, toujours chez Actes sud. Nicolas Mathieu y fait le portrait croisé d'une "histoire d'amour complexe", celle d'Hélène et Christophe, quadragénaires originaires de la même ville des Vosges qui se retrouvent après des existences bien différentes. Le titre du roman est une référence à la chanson Les Lacs du Connemara de Michel Sardou. Nicolas Mathieu justifie ce choix par le fait que « cette chanson nous est commune et en même temps selon qu'on l'écoute dans des mariages ou à la fin d'une fête de grande école de commerce, ce n'est pas le même monde. On ne l'écoute pas au même degré. »
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas_Mathieu_(%C3%A9crivain)</t>
+          <t>Nicolas_Mathieu_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Engagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Mathieu soutient en 2023 le mouvement contre le projet sur les retraites, notamment en cosignant une tribune rédigée par un collectif de près de 300 personnes du monde de la culture parue dans le quotidien Libération le 23 mars 2023 et s'adressant au chef de l’État pour demander le retrait immédiat du projet, jugé « injuste, inefficace, touchant plus durement les plus précaires et les femmes », en plus d'être rejeté « par l'immense majorité de la population, et même minoritaire à l'Assemblée nationale ».
 Le texte met en avant le devoir de solidarité face à une réforme qui « va frapper plus durement ceux qui exercent les métiers les plus difficiles, usants – tant physiquement que psychologiquement ».
-Nicolas Mathieu rédige par ailleurs, sur le même sujet, un texte paru dans Mediapart le 18 mars 2023, « Savez-vous quelle réserve de rage vous venez de libérer ? », dans lequel il s’adresse à Emmanuel Macron et à son gouvernement[21],[22].
+Nicolas Mathieu rédige par ailleurs, sur le même sujet, un texte paru dans Mediapart le 18 mars 2023, « Savez-vous quelle réserve de rage vous venez de libérer ? », dans lequel il s’adresse à Emmanuel Macron et à son gouvernement,.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nicolas_Mathieu_(%C3%A9crivain)</t>
+          <t>Nicolas_Mathieu_(écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mars 2024, un article de Paris-Match annonce une idylle entre Nicolas Mathieu et Charlotte Casiraghi[23],[24].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2024, un article de Paris-Match annonce une idylle entre Nicolas Mathieu et Charlotte Casiraghi,.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicolas_Mathieu_(%C3%A9crivain)</t>
+          <t>Nicolas_Mathieu_(écrivain)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,62 +630,273 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Romans
-Aux animaux la guerre, Actes Sud, coll. « Actes noirs », 2014, 369 p. (ISBN 978-2-330-03037-7). Réédition Actes Sud, collection Babel noir, no 147, 448 p.  (ISBN 978-2-330-05864-7).
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aux animaux la guerre, Actes Sud, coll. « Actes noirs », 2014, 369 p. (ISBN 978-2-330-03037-7). Réédition Actes Sud, collection Babel noir, no 147, 448 p.  (ISBN 978-2-330-05864-7).
 Leurs enfants après eux, Actes Sud, coll. « Domaine français », 2018, 432 p. (ISBN 978-2-330-10871-7). Réédition Actes Sud, collection Babel, no 1705  (ISBN 978-2-330-13917-9).
-Connemara, Actes Sud, coll. « Domaine français », 2022, 400 p. (ISBN 978-2-330-15970-2). Réédition Actes Sud, collection Babel, no 1878  (ISBN 978-2-330-17899-4).
-Nouvelles
-Paris-Colmar, illustré par Florent Chavouet, Le Monde/SNCF, coll. « Les Petits Polars du Monde », 2015, 78 p.  (ISBN 978-2-36156-209-0). Réédition dans une version revue et corrigée sous le titre La Retraite du juge Wagner dans Rose Royal suivi de La Retraite du juge Wagner, Actes Sud, collection Babel no 1749, 144 p  (ISBN 978-2-330-14997-0).
+Connemara, Actes Sud, coll. « Domaine français », 2022, 400 p. (ISBN 978-2-330-15970-2). Réédition Actes Sud, collection Babel, no 1878  (ISBN 978-2-330-17899-4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nicolas_Mathieu_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Paris-Colmar, illustré par Florent Chavouet, Le Monde/SNCF, coll. « Les Petits Polars du Monde », 2015, 78 p.  (ISBN 978-2-36156-209-0). Réédition dans une version revue et corrigée sous le titre La Retraite du juge Wagner dans Rose Royal suivi de La Retraite du juge Wagner, Actes Sud, collection Babel no 1749, 144 p  (ISBN 978-2-330-14997-0).
 La Fille aux seins nus dans Schnaps! no 1, juin 2017.
 Portrait d'une femme en jaune dans Gilets jaunes, pour un nouvel horizon social, Au Diable Vauvert, 2019.
 Rose Royal, Les éditions in8, 2019, 80 p.  (ISBN 978-2-36224-098-0). Réédition sous le titre Rose Royal suivi de La Retraite du Juge Wagner, Actes Sud, collection Babel no 1749, 144 p.  (ISBN 978-2-330-14997-0).
-Un texte sans titre en ouverture de #Wheniwas15, éditions Thierry Magnier, collection Hors collection, 2023, 176 p.  (ISBN 979-1035206994).
-Albums illustrés pour la jeunesse
-La Grande école, illustré par Pierre-Henry Gomont, Actes Sud Junior, 2020, 32 p.  (ISBN 978-2-330-14193-6)
+Un texte sans titre en ouverture de #Wheniwas15, éditions Thierry Magnier, collection Hors collection, 2023, 176 p.  (ISBN 979-1035206994).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nicolas_Mathieu_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums illustrés pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Grande école, illustré par Pierre-Henry Gomont, Actes Sud Junior, 2020, 32 p.  (ISBN 978-2-330-14193-6)
 Le Secret des parents, illustré par Pierre-Henry Gomont, Actes Sud Junior, 2021, 32 p.  (ISBN 978-2-330-15521-6)
-Papa, illustré par Stéphane Kiehl, Actes Sud Junior, 2022, 32 p.  (ISBN 978-2-330-16286-3)
-Poésie
-Jamais je ne t’avais vue plus simple dans Schnaps! n°4, juillet 2019.
-Le ciel ouvert, Actes Sud éditions, 2024, 128 p. (ISBN : 978-2-330-18549-7).
-Récit photographique
-avec Jérôme Sessini (photographies) et Tendance floue (photographies), Les Vies qu'on mène, Le Bec en l'air, 2022, 256 p. (ISBN 978-2-36744-162-7)
-Entretien
-Nicolas Mathieu, un écrivain au travail, entretien avec Richard Gaitet, Editions Points, Collection Points Documents, 2023, 144 p.  (ISBN 9782757897287).
-Préfaces
-Louis de Funès de Clémentine Deroudille, Editions Flammarion, 2019, 192 p.  (ISBN 9782081490963).
+Papa, illustré par Stéphane Kiehl, Actes Sud Junior, 2022, 32 p.  (ISBN 978-2-330-16286-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nicolas_Mathieu_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jamais je ne t’avais vue plus simple dans Schnaps! n°4, juillet 2019.
+Le ciel ouvert, Actes Sud éditions, 2024, 128 p. (ISBN : 978-2-330-18549-7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nicolas_Mathieu_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récit photographique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>avec Jérôme Sessini (photographies) et Tendance floue (photographies), Les Vies qu'on mène, Le Bec en l'air, 2022, 256 p. (ISBN 978-2-36744-162-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nicolas_Mathieu_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Entretien</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nicolas Mathieu, un écrivain au travail, entretien avec Richard Gaitet, Editions Points, Collection Points Documents, 2023, 144 p.  (ISBN 9782757897287).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nicolas_Mathieu_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Préfaces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Louis de Funès de Clémentine Deroudille, Editions Flammarion, 2019, 192 p.  (ISBN 9782081490963).
 Nos campagnes suspendues de Salomé Berlioux, Editions de l'Observatoire, 2020, 206 p.  (ISBN 979-10-329-1521-9).
 #Wheniwas15, Editions Thierry Magnier, collection Hors collection, 2023, 176 p.  (ISBN 979-1035206994).</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nicolas_Mathieu_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nicolas_Mathieu_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicolas_Mathieu_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prix Erckmann-Chatrian 2014 pour Aux animaux la guerre[25]
-Prix Mystère de la critique 2015 pour Aux animaux la guerre[26]
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prix Erckmann-Chatrian 2014 pour Aux animaux la guerre
+Prix Mystère de la critique 2015 pour Aux animaux la guerre
 Prix Goncourt 2018 pour Leurs enfants après eux</t>
         </is>
       </c>
